--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2748030.042507994</v>
+        <v>2742289.927799778</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359931</v>
+        <v>6663746.095359933</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.07113985546249</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.60137149196386</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>68.54445739173376</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>98.31432270723742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356732</v>
+        <v>66.70865780356733</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100837</v>
+        <v>59.24433418100839</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.001780074511027</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>43.96332327854179</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848783</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>163.4381150164778</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>167.7237526624654</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>71.05302712961728</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>62.8852869272437</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.82466560786628</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>354.752216257426</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5863391041184</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>42.15874962485201</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>257.1153981074154</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>86.35257921647546</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>239.7430688910027</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292677</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>79.9569240450577</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.7860573675495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>102.847803564475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>148.5873298926981</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.00193931184507</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>156.8797246418415</v>
       </c>
       <c r="X31" t="n">
-        <v>119.5949358390736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>147.921296784087</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>90.41948680756549</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>90.41948680756526</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.3785837344374</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>1.487334137518444</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>20.84901245549815</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>131.7942461569942</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4315,13 +4315,13 @@
         <v>1353.100924242953</v>
       </c>
       <c r="E2" t="n">
-        <v>967.3126716447089</v>
+        <v>967.312671644709</v>
       </c>
       <c r="F2" t="n">
-        <v>556.3267668551014</v>
+        <v>960.3671708955055</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738262</v>
+        <v>542.1134942738263</v>
       </c>
       <c r="H2" t="n">
         <v>211.9501583307498</v>
@@ -4330,13 +4330,13 @@
         <v>47.30902621369977</v>
       </c>
       <c r="J2" t="n">
-        <v>138.964238501591</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.076446806071</v>
+        <v>397.0764468060711</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927196</v>
+        <v>769.5640925927194</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689013</v>
@@ -4348,31 +4348,31 @@
         <v>1978.679112633673</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054132</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R2" t="n">
-        <v>2321.409521299166</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="S2" t="n">
-        <v>2321.409521299166</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="T2" t="n">
-        <v>2101.505954825515</v>
+        <v>2296.214485036772</v>
       </c>
       <c r="U2" t="n">
-        <v>2101.505954825515</v>
+        <v>2042.429510193274</v>
       </c>
       <c r="V2" t="n">
-        <v>2101.505954825515</v>
+        <v>1711.366622849704</v>
       </c>
       <c r="W2" t="n">
-        <v>2101.505954825515</v>
+        <v>1711.366622849704</v>
       </c>
       <c r="X2" t="n">
-        <v>2101.505954825515</v>
+        <v>1711.366622849704</v>
       </c>
       <c r="Y2" t="n">
         <v>1711.366622849704</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.3222662182066</v>
+        <v>843.1583574384917</v>
       </c>
       <c r="C3" t="n">
-        <v>667.8692369370796</v>
+        <v>668.7053281573648</v>
       </c>
       <c r="D3" t="n">
-        <v>518.9348272758283</v>
+        <v>519.7709184961135</v>
       </c>
       <c r="E3" t="n">
-        <v>359.6973722703728</v>
+        <v>360.533463490658</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>213.998905517543</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>213.998905517543</v>
       </c>
       <c r="H3" t="n">
         <v>114.6915088435658</v>
@@ -4412,25 +4412,25 @@
         <v>108.2048630683009</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422595</v>
+        <v>338.9063907138127</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852922</v>
+        <v>710.5174612568453</v>
       </c>
       <c r="M3" t="n">
-        <v>987.402082387481</v>
+        <v>1196.149274459034</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030029</v>
+        <v>1710.341330101582</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119901</v>
+        <v>2114.310927191454</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.78188369591</v>
+        <v>2212.781883695909</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R3" t="n">
         <v>2305.60854888599</v>
@@ -4439,22 +4439,22 @@
         <v>2144.554785926781</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087513</v>
+        <v>2144.554785926781</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549722</v>
+        <v>1916.374958388991</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.71916731798</v>
+        <v>1681.222850157248</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589778</v>
+        <v>1426.985493429047</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384245</v>
+        <v>1219.133993223514</v>
       </c>
       <c r="Y3" t="n">
-        <v>1010.537603238275</v>
+        <v>1011.37369445856</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.839075254619</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="C4" t="n">
-        <v>570.4316780035667</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="D4" t="n">
-        <v>570.4316780035667</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="E4" t="n">
-        <v>570.4316780035667</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="F4" t="n">
-        <v>570.4316780035667</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3018527029674</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="H4" t="n">
-        <v>242.3974393348134</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="I4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J4" t="n">
         <v>47.30902621369977</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181595</v>
+        <v>88.80529410181592</v>
       </c>
       <c r="L4" t="n">
         <v>197.4326649365661</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950597</v>
+        <v>322.3541198950596</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896741</v>
+        <v>449.739838289674</v>
       </c>
       <c r="O4" t="n">
-        <v>551.384871688593</v>
+        <v>551.3848716885927</v>
       </c>
       <c r="P4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="R4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="S4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="T4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="U4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546188</v>
       </c>
       <c r="V4" t="n">
-        <v>614.839075254619</v>
+        <v>449.7500701874695</v>
       </c>
       <c r="W4" t="n">
-        <v>614.839075254619</v>
+        <v>449.7500701874695</v>
       </c>
       <c r="X4" t="n">
-        <v>614.839075254619</v>
+        <v>449.7500701874695</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.839075254619</v>
+        <v>228.9574910439395</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1761.414268258235</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="C5" t="n">
-        <v>1761.414268258235</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1403.148569651485</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1017.36031705324</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>606.3744122636328</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.414268258235</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,16 +4655,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>643.4576048045491</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2372.61483931396</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1982.475507338148</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4892,22 +4892,22 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>499.6351384500838</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C13" t="n">
-        <v>330.6989555221769</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D13" t="n">
         <v>243.4741280307875</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1300.726250449538</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1300.726250449538</v>
       </c>
       <c r="W13" t="n">
-        <v>909.2731541783409</v>
+        <v>1011.309080412578</v>
       </c>
       <c r="X13" t="n">
-        <v>681.2836032803235</v>
+        <v>783.3195295145603</v>
       </c>
       <c r="Y13" t="n">
-        <v>681.2836032803235</v>
+        <v>562.5269503710301</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089265</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5323,7 +5323,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>884.577891690201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>803.8133219477185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1355.643526557401</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1066.226356520441</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>1066.226356520441</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1066.226356520441</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5518,43 +5518,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>619.8559841413803</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.1225928610272</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5755,25 +5755,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1852.456795837557</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1630.690180407083</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1630.690180407083</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1376.005692201196</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1086.588522164236</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>858.5989712662184</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>637.8063921226883</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>241.7782212305366</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>725.3071882816349</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6414,22 +6414,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1509.973093725643</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.555923688682</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>992.5663727906651</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>771.773793647135</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,13 +6469,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3551.938043311329</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C31" t="n">
-        <v>3383.001860383422</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D31" t="n">
-        <v>3232.885220971086</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>3084.972127388693</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>3084.972127388693</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763412</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816073</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>4364.599222816073</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V31" t="n">
-        <v>4364.599222816073</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W31" t="n">
-        <v>4075.182052779112</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X31" t="n">
-        <v>3954.379087285099</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y31" t="n">
-        <v>3733.586508141569</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3064.159238261322</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3064.159238261322</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3064.159238261322</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3064.159238261322</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456397</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.57468955838</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>3064.159238261322</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6943,46 +6943,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,19 +7159,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7183,28 +7183,28 @@
         <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7219,7 +7219,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3303.405146800852</v>
+        <v>409.1008243407839</v>
       </c>
       <c r="C40" t="n">
-        <v>3303.405146800852</v>
+        <v>409.1008243407839</v>
       </c>
       <c r="D40" t="n">
-        <v>3212.072331843715</v>
+        <v>409.1008243407839</v>
       </c>
       <c r="E40" t="n">
-        <v>3064.159238261322</v>
+        <v>409.1008243407839</v>
       </c>
       <c r="F40" t="n">
-        <v>2917.269290763412</v>
+        <v>409.1008243407839</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763412</v>
+        <v>241.3979877155029</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>4586.365838246547</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>4364.599222816073</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U40" t="n">
-        <v>4075.496355941717</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V40" t="n">
-        <v>3820.81186773583</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W40" t="n">
-        <v>3531.394697698869</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X40" t="n">
-        <v>3303.405146800852</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="Y40" t="n">
-        <v>3303.405146800852</v>
+        <v>590.7492891710236</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7417,46 +7417,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7599,22 +7599,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1674.827124689058</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.767516148151</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.777965250134</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.985386106604</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551608</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7654,46 +7654,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1120.662598458018</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1120.662598458018</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1120.662598458018</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1120.662598458018</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>53.60948744535312</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>107.6070190727118</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>315.1679217109319</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>226.7688596193112</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.26289380173689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>46.4687693146102</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238327</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>87.28989705357013</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.79859598454524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>86.92122176696694</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.99732345939674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.8300408700922</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>129.6432736947495</v>
       </c>
       <c r="X31" t="n">
-        <v>106.1147195499636</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.66335656800774</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>58.19598621064686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>58.19598621064709</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0.3764311798834115</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>178.3446460444189</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>265.6739858810928</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>120.3433971668338</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778753.204830582</v>
+        <v>778753.2048305819</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778753.204830582</v>
+        <v>778753.2048305819</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778753.204830582</v>
+        <v>778753.2048305819</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778753.204830582</v>
+        <v>778753.2048305819</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
@@ -26322,40 +26322,40 @@
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="F2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="G2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="H2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="F2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="G2" t="n">
-        <v>635330.8590191732</v>
-      </c>
-      <c r="H2" t="n">
-        <v>635330.859019173</v>
-      </c>
       <c r="I2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="J2" t="n">
         <v>635330.8590191726</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="L2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="K2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="L2" t="n">
-        <v>635330.859019173</v>
-      </c>
       <c r="M2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191726</v>
       </c>
       <c r="N2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="O2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="O2" t="n">
-        <v>635330.8590191727</v>
-      </c>
       <c r="P2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191726</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106474</v>
+        <v>493391.6844106472</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446969</v>
+        <v>91792.63957446984</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>154726.5356832158</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220093</v>
+        <v>21342.09858220096</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499375</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499382</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.1061314012</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-139763.3294166034</v>
+        <v>-139763.3294166033</v>
       </c>
       <c r="C6" t="n">
-        <v>281117.1923258159</v>
+        <v>281117.1923258157</v>
       </c>
       <c r="D6" t="n">
         <v>372909.8319002857</v>
       </c>
       <c r="E6" t="n">
-        <v>-213520.7969029413</v>
+        <v>-214192.7518051993</v>
       </c>
       <c r="F6" t="n">
-        <v>513856.6170904656</v>
+        <v>513184.6621882074</v>
       </c>
       <c r="G6" t="n">
-        <v>513856.6170904657</v>
+        <v>513184.6621882073</v>
       </c>
       <c r="H6" t="n">
-        <v>513856.6170904654</v>
+        <v>513184.6621882074</v>
       </c>
       <c r="I6" t="n">
-        <v>513856.6170904651</v>
+        <v>513184.6621882073</v>
       </c>
       <c r="J6" t="n">
-        <v>359130.0814072495</v>
+        <v>358458.1265049914</v>
       </c>
       <c r="K6" t="n">
-        <v>492514.5185082646</v>
+        <v>491842.5636060062</v>
       </c>
       <c r="L6" t="n">
-        <v>513856.6170904654</v>
+        <v>513184.6621882074</v>
       </c>
       <c r="M6" t="n">
-        <v>384214.3022515207</v>
+        <v>383542.3473492625</v>
       </c>
       <c r="N6" t="n">
-        <v>513856.6170904653</v>
+        <v>513184.6621882073</v>
       </c>
       <c r="O6" t="n">
-        <v>513856.6170904652</v>
+        <v>513184.6621882074</v>
       </c>
       <c r="P6" t="n">
-        <v>513856.6170904653</v>
+        <v>513184.6621882072</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435492</v>
+        <v>306.3599178435491</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.362827671247</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435492</v>
+        <v>306.3599178435491</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353741</v>
+        <v>71.38374637353752</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.362827671247</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330844</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.362827671247</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330844</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.362827671247</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330844</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.90339995977938</v>
+        <v>72.50477145174327</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>149.160073417181</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27469,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.556927764244932</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>196.6809157027933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>123.283497820086</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731846</v>
+        <v>39.90169565731847</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27596,7 +27596,7 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>88.69952830735022</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>197.5491391085421</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>342.7311428911777</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>104.4245153318072</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>141.210439850218</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>10.52067551358152</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>354.1447615743506</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>106.4567233933603</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>29.16647613456234</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-4.745772102246885e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-8.171241461241152e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672559</v>
+        <v>1.231597659672558</v>
       </c>
       <c r="H2" t="n">
         <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452637</v>
+        <v>47.48116877452635</v>
       </c>
       <c r="J2" t="n">
         <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015734</v>
+        <v>156.6638408015733</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787775</v>
+        <v>194.3553476787774</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589794</v>
+        <v>216.2577725589793</v>
       </c>
       <c r="N2" t="n">
-        <v>219.757049409524</v>
+        <v>219.7570494095239</v>
       </c>
       <c r="O2" t="n">
-        <v>207.510350181155</v>
+        <v>207.5103501811549</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579887</v>
+        <v>177.1052829579886</v>
       </c>
       <c r="Q2" t="n">
         <v>132.9986917709651</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940644</v>
+        <v>77.36434648940642</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978846</v>
+        <v>28.06503166978845</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216629</v>
+        <v>5.391318755216627</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380468</v>
+        <v>0.09852781277380465</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540493</v>
+        <v>0.6589628421540491</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014108</v>
+        <v>6.364193765014106</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784775</v>
+        <v>22.68797504784774</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403674</v>
+        <v>62.25753764403672</v>
       </c>
       <c r="K3" t="n">
         <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966501</v>
+        <v>143.07875219665</v>
       </c>
       <c r="M3" t="n">
         <v>166.9661552247343</v>
@@ -31144,25 +31144,25 @@
         <v>171.3852525302323</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382926</v>
+        <v>156.7840232382925</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723816</v>
+        <v>125.8330009723815</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338357</v>
+        <v>84.11602876338353</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163476</v>
+        <v>40.91349997163474</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422104</v>
+        <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945487</v>
+        <v>2.656082683945486</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276642</v>
+        <v>0.0433528185627664</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654166</v>
+        <v>0.5524523108654164</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967071</v>
+        <v>4.911803272967069</v>
       </c>
       <c r="I4" t="n">
         <v>16.61374767584362</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818495</v>
+        <v>39.05837837818493</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509112</v>
+        <v>64.18491393509109</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448204</v>
+        <v>82.13459174448201</v>
       </c>
       <c r="M4" t="n">
-        <v>86.5994108750216</v>
+        <v>86.59941087502158</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361422</v>
+        <v>84.54027044361419</v>
       </c>
       <c r="O4" t="n">
-        <v>78.0866229939591</v>
+        <v>78.08662299395907</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230454</v>
+        <v>66.81659585230452</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437593</v>
+        <v>46.26034759437592</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400318</v>
+        <v>24.84026481400317</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263665</v>
+        <v>9.627737090263661</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36047805551587</v>
+        <v>2.360478055515869</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084094</v>
+        <v>0.03013376241084093</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302141</v>
+        <v>92.58102251302138</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277576</v>
+        <v>260.7194023277575</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592407</v>
+        <v>376.2501472592406</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245391</v>
+        <v>435.425072824539</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249173</v>
+        <v>427.6909102249172</v>
       </c>
       <c r="O2" t="n">
         <v>358.2123200222136</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742018</v>
+        <v>267.6709953742017</v>
       </c>
       <c r="Q2" t="n">
         <v>123.0079925564203</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777889</v>
+        <v>61.51094631777887</v>
       </c>
       <c r="K3" t="n">
-        <v>22.17609653935217</v>
+        <v>233.0318461065776</v>
       </c>
       <c r="L3" t="n">
         <v>375.364717720235</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527159</v>
+        <v>490.5371850527158</v>
       </c>
       <c r="N3" t="n">
         <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705777</v>
+        <v>408.0500980705776</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979885</v>
+        <v>99.46561263076308</v>
       </c>
       <c r="Q3" t="n">
         <v>154.2115424132111</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920827</v>
+        <v>41.91542210920824</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
         <v>126.1832878368622</v>
@@ -34871,10 +34871,10 @@
         <v>128.6724428228428</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719803</v>
+        <v>64.095155117198</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>867.4697571238434</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37071,10 +37071,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>682.3589740116433</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37785,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2742289.927799778</v>
+        <v>2745695.418924226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359933</v>
+        <v>6663746.095359931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174327</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>68.54445739173376</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>230.5576123819434</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.31432270723742</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356733</v>
+        <v>26.75866868093695</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100839</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>167.7237526624654</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>174.599798404177</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>62.8852869272437</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>11.90975838011561</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>354.752216257426</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>67.0457495185105</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>42.15874962485201</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>144.3968844608068</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292523</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>57.02146927219732</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>239.7430688910027</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292677</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396208</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.689844124971</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>59.90320919298897</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>36.41670903610034</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>270.3808622796248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>200.5864956139556</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>156.8797246418415</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>11.79514669278458</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.3785837344374</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.487334137518444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>88.71883721364188</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>42.32069823344337</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1711.366622849704</v>
+        <v>1325.57837025146</v>
       </c>
       <c r="C2" t="n">
-        <v>1711.366622849704</v>
+        <v>1325.57837025146</v>
       </c>
       <c r="D2" t="n">
-        <v>1353.100924242953</v>
+        <v>967.312671644709</v>
       </c>
       <c r="E2" t="n">
         <v>967.312671644709</v>
@@ -4336,7 +4336,7 @@
         <v>397.0764468060711</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927194</v>
+        <v>769.5640925927196</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689013</v>
@@ -4354,28 +4354,28 @@
         <v>2365.451310684988</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684988</v>
+        <v>2292.21416780444</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684988</v>
+        <v>2109.43130122216</v>
       </c>
       <c r="T2" t="n">
-        <v>2296.214485036772</v>
+        <v>1889.527734748508</v>
       </c>
       <c r="U2" t="n">
-        <v>2042.429510193274</v>
+        <v>1656.64125759503</v>
       </c>
       <c r="V2" t="n">
-        <v>1711.366622849704</v>
+        <v>1325.57837025146</v>
       </c>
       <c r="W2" t="n">
-        <v>1711.366622849704</v>
+        <v>1325.57837025146</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.366622849704</v>
+        <v>1325.57837025146</v>
       </c>
       <c r="Y2" t="n">
-        <v>1711.366622849704</v>
+        <v>1325.57837025146</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>843.1583574384917</v>
+        <v>703.4974363982212</v>
       </c>
       <c r="C3" t="n">
-        <v>668.7053281573648</v>
+        <v>529.0444071170942</v>
       </c>
       <c r="D3" t="n">
-        <v>519.7709184961135</v>
+        <v>380.109997455843</v>
       </c>
       <c r="E3" t="n">
-        <v>360.533463490658</v>
+        <v>220.8725424503875</v>
       </c>
       <c r="F3" t="n">
-        <v>213.998905517543</v>
+        <v>74.33798447727244</v>
       </c>
       <c r="G3" t="n">
-        <v>213.998905517543</v>
+        <v>74.33798447727244</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>74.33798447727244</v>
       </c>
       <c r="I3" t="n">
         <v>47.30902621369977</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683009</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138127</v>
+        <v>278.0105538592116</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568453</v>
+        <v>649.6216244022443</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459034</v>
+        <v>1135.253437604433</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101582</v>
+        <v>1649.445493246981</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191454</v>
+        <v>2053.415090336853</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695909</v>
+        <v>2360.633238912861</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.451310684988</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.60854888599</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926781</v>
+        <v>2204.397547725779</v>
       </c>
       <c r="T3" t="n">
-        <v>2144.554785926781</v>
+        <v>2004.89386488651</v>
       </c>
       <c r="U3" t="n">
-        <v>1916.374958388991</v>
+        <v>1776.71403734872</v>
       </c>
       <c r="V3" t="n">
-        <v>1681.222850157248</v>
+        <v>1541.561929116978</v>
       </c>
       <c r="W3" t="n">
-        <v>1426.985493429047</v>
+        <v>1287.324572388776</v>
       </c>
       <c r="X3" t="n">
-        <v>1219.133993223514</v>
+        <v>1079.473072183243</v>
       </c>
       <c r="Y3" t="n">
-        <v>1011.37369445856</v>
+        <v>871.7127734182893</v>
       </c>
     </row>
     <row r="4">
@@ -4546,13 +4546,13 @@
         <v>1141.749745823171</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>783.4840472164201</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>397.6957946181759</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4640,7 +4640,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4704,22 +4704,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>381.8627885497561</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674169</v>
+        <v>234.9728410518458</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>65.9730407901782</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2465.942913862886</v>
+        <v>1757.366513095501</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1757.366513095501</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1399.100814488751</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1013.312561890506</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>602.3266571008987</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.0740493317991</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>289.0740493317991</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7225141620388</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5029,40 +5029,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208925</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.5269503710301</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C13" t="n">
-        <v>393.5907674431232</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.726250449538</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1300.726250449538</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1011.309080412578</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>783.3195295145603</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.5269503710301</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551629</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089265</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5284,22 +5284,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,22 +5308,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866384</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5737,16 +5737,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5767,13 +5767,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>156.0693265625247</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>132.345589030314</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6186,13 +6186,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6651,22 +6651,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1472.21450285678</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258584</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="V31" t="n">
-        <v>1198.376021052697</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W31" t="n">
-        <v>1039.911652727605</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X31" t="n">
-        <v>811.9221018295875</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>591.1295226860574</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6903,7 +6903,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,7 +6922,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6934,7 +6934,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6943,31 +6943,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,52 +7171,52 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193956</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420603</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754298</v>
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>409.1008243407839</v>
+        <v>498.9312815832557</v>
       </c>
       <c r="C40" t="n">
-        <v>409.1008243407839</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="D40" t="n">
-        <v>409.1008243407839</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E40" t="n">
-        <v>409.1008243407839</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F40" t="n">
-        <v>409.1008243407839</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G40" t="n">
-        <v>241.3979877155029</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1355.643526557401</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.959038351514</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>811.5418683145538</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>811.5418683145538</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y40" t="n">
-        <v>590.7492891710236</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,16 +7399,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7429,34 +7429,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.3640755286979</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y43" t="n">
-        <v>391.866433243363</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551608</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7657,43 +7657,43 @@
         <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1913.595286070923</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1500.142786467275</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902262998</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6070190727118</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.73248448640268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>67.53663776704252</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9415,16 +9415,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>226.7688596193112</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277297</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>110.2253518264305</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>46.4687693146102</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238327</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696625</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>84.8518057213318</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,10 +24177,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>108.3383058782204</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>18.96245366221362</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>129.6432736947495</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>51.55114770987264</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>155.4516744058432</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3764311798834115</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>178.3446460444189</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>129.8658161384529</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>46.61145443660396</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778753.2048305819</v>
+        <v>778753.2048305818</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778753.2048305819</v>
+        <v>778753.204830582</v>
       </c>
     </row>
     <row r="12">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914259</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="F2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="H2" t="n">
         <v>635330.8590191726</v>
-      </c>
-      <c r="H2" t="n">
-        <v>635330.8590191728</v>
       </c>
       <c r="I2" t="n">
         <v>635330.8590191727</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="K2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="L2" t="n">
         <v>635330.8590191728</v>
@@ -26352,10 +26352,10 @@
         <v>635330.8590191727</v>
       </c>
       <c r="O2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="P2" t="n">
         <v>635330.8590191728</v>
-      </c>
-      <c r="P2" t="n">
-        <v>635330.8590191726</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499375</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499377</v>
@@ -26441,7 +26441,7 @@
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499377</v>
       </c>
     </row>
     <row r="5">
@@ -26502,16 +26502,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-139763.3294166033</v>
+        <v>-139763.3294166036</v>
       </c>
       <c r="C6" t="n">
-        <v>281117.1923258157</v>
+        <v>281117.1923258156</v>
       </c>
       <c r="D6" t="n">
-        <v>372909.8319002857</v>
+        <v>372909.831900286</v>
       </c>
       <c r="E6" t="n">
-        <v>-214192.7518051993</v>
+        <v>-213587.992393167</v>
       </c>
       <c r="F6" t="n">
-        <v>513184.6621882074</v>
+        <v>513789.4216002396</v>
       </c>
       <c r="G6" t="n">
-        <v>513184.6621882073</v>
+        <v>513789.4216002397</v>
       </c>
       <c r="H6" t="n">
-        <v>513184.6621882074</v>
+        <v>513789.4216002394</v>
       </c>
       <c r="I6" t="n">
-        <v>513184.6621882073</v>
+        <v>513789.4216002395</v>
       </c>
       <c r="J6" t="n">
-        <v>358458.1265049914</v>
+        <v>359062.8859170238</v>
       </c>
       <c r="K6" t="n">
-        <v>491842.5636060062</v>
+        <v>492447.3230180386</v>
       </c>
       <c r="L6" t="n">
-        <v>513184.6621882074</v>
+        <v>513789.4216002395</v>
       </c>
       <c r="M6" t="n">
-        <v>383542.3473492625</v>
+        <v>384147.1067612945</v>
       </c>
       <c r="N6" t="n">
-        <v>513184.6621882073</v>
+        <v>513789.4216002394</v>
       </c>
       <c r="O6" t="n">
-        <v>513184.6621882074</v>
+        <v>513789.4216002393</v>
       </c>
       <c r="P6" t="n">
-        <v>513184.6621882072</v>
+        <v>513789.4216002396</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174327</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>149.160073417181</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>20.68951271311934</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>7.556927764244932</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.94998912263038</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100839</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>197.5491391085421</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>232.2762473375344</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>104.4245153318072</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>144.2611304616795</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>10.52067551358152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>346.7384205022845</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>106.4567233933603</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>80.63822099727744</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.82041006105577e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-4.745772102246885e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.171241461241152e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.51795128866013e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-7.031462609625592e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777887</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>233.0318461065776</v>
@@ -34795,10 +34795,10 @@
         <v>408.0500980705776</v>
       </c>
       <c r="P3" t="n">
-        <v>99.46561263076308</v>
+        <v>310.3213621979885</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132111</v>
+        <v>4.866739163764688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35667,10 +35667,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>404.727924322443</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36135,16 +36135,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>766.6741794499121</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>682.3589740116433</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37320,7 +37320,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37545,10 +37545,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200619</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
